--- a/biology/Botanique/Francesco_Ambrosi/Francesco_Ambrosi.xlsx
+++ b/biology/Botanique/Francesco_Ambrosi/Francesco_Ambrosi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Ambrosi est un bibliothécaire, un historien et un botaniste, né le 17 novembre 1821 à Borgo Valsugana dans la région de Trente et mort le 9 avril 1897 à Trente en Italie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autodidacte, son éducation entre empêchée par ses parents, riches paysans, et par l’abbé Lorenzo Ambrosi, qui exerçant un grand pouvoir sur la famille des Ambrosi, ne donnait comme choix au jeune Francesco, soit d’entrer dans les ordres, soit de devenir lui aussi agriculteur. Il consacre alors ses loisirs à découvrir par lui-même les sciences naturelles, mais aussi l'histoire et la philosophie. C’est surtout la botanique qui le passionne qu’il peut étudier grâce à Francesco Facchini (1788-1852) et Casimiro Sartorelli (1774-1852). Il étudie notamment la flore de Valsugana et de la région de Trente.
 Il fait paraître de nombreux travaux scientifiques, notamment, en 1851, Prospetto delle specie zoologiche conosciute nel Trentino. En 1853, il épouse Elisa Zanollo, union dont naîtra huit enfants dont cinq mourront en bas âge. Il commence à publier, en 1854, La flora del Tirolo meridionale qui s’interrompra en 1857 sans pour autant être terminée. Un incendie détruit sa maison et toutes ses archives et collections.
